--- a/Police Deaths Formatting.xlsx
+++ b/Police Deaths Formatting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>White Population of the US</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,14 +33,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BLACK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHITE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ARMED</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -53,14 +45,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>% of Pop. (Per 1k)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2010 Census Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>% of Pop.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNARMED BLACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNARMED WHITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of Pop. (Per 1M)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population Per 100,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>YEAR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,10 +198,6 @@
   </si>
   <si>
     <t>Source for Estimated Population:  US CENSUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Population Per 1,000,000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1619,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1635,23 +1639,23 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1"/>
     <row r="6" spans="1:4" ht="14" thickBot="1">
       <c r="A6" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1659,16 +1663,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1679,7 +1683,7 @@
         <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1691,7 +1695,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1703,7 +1707,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1715,7 +1719,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1727,7 +1731,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -1739,7 +1743,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -1751,7 +1755,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -1763,7 +1767,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -1775,7 +1779,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -1787,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -1799,7 +1803,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -1811,7 +1815,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -1823,7 +1827,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -1835,7 +1839,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1847,7 +1851,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -1859,7 +1863,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -1871,7 +1875,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1883,7 +1887,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -1895,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -1907,7 +1911,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -1919,7 +1923,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -1931,7 +1935,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -1943,7 +1947,7 @@
         <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -1955,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -1967,7 +1971,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -1979,7 +1983,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D33" s="5"/>
     </row>
@@ -1991,7 +1995,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -2003,7 +2007,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -2015,7 +2019,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" s="5"/>
     </row>
@@ -2027,7 +2031,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -2039,7 +2043,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -2051,7 +2055,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -2063,7 +2067,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" s="5"/>
     </row>
@@ -2075,7 +2079,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="5"/>
     </row>
@@ -2087,7 +2091,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" s="5">
         <f>(3*D43)</f>
@@ -2096,13 +2100,13 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5">
         <f>(B43/9)</f>
@@ -2111,7 +2115,7 @@
     </row>
     <row r="44" spans="1:11" ht="14" thickBot="1">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B44" s="7">
         <f>SUM(B43+D43)</f>
@@ -2119,12 +2123,12 @@
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14" thickBot="1">
       <c r="A45" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2133,32 +2137,32 @@
       <c r="F45" s="25"/>
       <c r="G45" s="26"/>
       <c r="I45" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="17"/>
     </row>
     <row r="46" spans="1:11" ht="27" thickBot="1">
       <c r="A46" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="19"/>
@@ -2166,7 +2170,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B47" s="3">
         <f>SUM(B8:B15)</f>
@@ -2193,18 +2197,18 @@
         <v>428.66666666666669</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B48" s="3">
         <v>8</v>
@@ -2225,7 +2229,7 @@
         <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J48" s="3">
         <f>SUM(B47,C47,E47,)</f>
@@ -2238,7 +2242,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B49" s="3">
         <f>(B47/B48)</f>
@@ -2265,7 +2269,7 @@
         <v>53.583333333333336</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J49" s="3">
         <f>SUM(B48,C48,E48,)</f>
@@ -2278,7 +2282,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="I50" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J50" s="3">
         <f>(J48/J49)</f>
@@ -2291,12 +2295,12 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B79">
         <v>2015</v>
@@ -2317,14 +2321,14 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>38</v>
@@ -2333,14 +2337,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>32</v>
@@ -2349,14 +2353,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <f>B42</f>
@@ -2367,22 +2371,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="26">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="26">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <f>(B82*F93)</f>
+        <v>208.93336236344035</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="26">
       <c r="A93" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B93" s="27">
         <v>308745538</v>
@@ -2390,9 +2398,16 @@
       <c r="C93" s="14">
         <v>100</v>
       </c>
-      <c r="D93" s="14"/>
-    </row>
-    <row r="94" spans="1:4" ht="26">
+      <c r="D93" s="14">
+        <f>(B93/100000)</f>
+        <v>3087.4553799999999</v>
+      </c>
+      <c r="F93">
+        <f>(B94/B95)</f>
+        <v>5.4982463779852724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="26">
       <c r="A94" s="14" t="s">
         <v>0</v>
       </c>
@@ -2403,11 +2418,11 @@
         <v>74.8</v>
       </c>
       <c r="D94" s="28">
-        <f>B94/1000000</f>
-        <v>231.04039800000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="26">
+        <f>B94/100000</f>
+        <v>2310.40398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="26">
       <c r="A95" s="14" t="s">
         <v>1</v>
       </c>
@@ -2418,8 +2433,8 @@
         <v>13.6</v>
       </c>
       <c r="D95" s="28">
-        <f>B95/1000000</f>
-        <v>42.020743000000003</v>
+        <f>B95/100000</f>
+        <v>420.20742999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Police Deaths Formatting.xlsx
+++ b/Police Deaths Formatting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>White Population of the US</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,7 +65,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Population Per 100,000</t>
+    <t>Population Per 1000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL: WHITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL: BLACK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -209,12 +217,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -462,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -508,12 +518,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,11 +1075,14 @@
     <c:title>
       <c:layout/>
     </c:title>
+    <c:view3D>
+      <c:rotX val="75"/>
+      <c:perspective val="30"/>
+    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -1098,7 +1114,52 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.162745855184609"/>
+                  <c:y val="-0.0590936402180497"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>67.75 Deaths</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.163446884398567"/>
+                  <c:y val="0.00521962447001817"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>57.21 Deaths</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showVal val="1"/>
+            </c:dLbl>
             <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1130,72 +1191,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="438960936"/>
-        <c:axId val="438827560"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="438960936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Party</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438827560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="438827560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Avg Number of Police Deaths by Gunfire</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438960936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -1271,15 +1275,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1623,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1639,23 +1643,23 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1"/>
     <row r="6" spans="1:4" ht="14" thickBot="1">
       <c r="A6" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1663,16 +1667,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1683,7 +1687,7 @@
         <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1695,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1707,7 +1711,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1719,7 +1723,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1731,7 +1735,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -1743,7 +1747,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -1755,7 +1759,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -1767,7 +1771,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -1779,7 +1783,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -1791,7 +1795,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -1803,7 +1807,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -1815,7 +1819,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -1827,7 +1831,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -1839,7 +1843,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1851,7 +1855,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -1863,7 +1867,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -1875,7 +1879,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1887,7 +1891,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -1899,7 +1903,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -1911,7 +1915,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -1923,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -1935,7 +1939,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -1947,7 +1951,7 @@
         <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -1959,7 +1963,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -1971,7 +1975,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -1983,7 +1987,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" s="5"/>
     </row>
@@ -1995,7 +1999,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -2007,7 +2011,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -2019,7 +2023,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D36" s="5"/>
     </row>
@@ -2031,7 +2035,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -2043,7 +2047,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -2055,7 +2059,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -2067,7 +2071,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D40" s="5"/>
     </row>
@@ -2079,7 +2083,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D41" s="5"/>
     </row>
@@ -2091,7 +2095,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D42" s="5">
         <f>(3*D43)</f>
@@ -2100,13 +2104,13 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D43" s="5">
         <f>(B43/9)</f>
@@ -2115,7 +2119,7 @@
     </row>
     <row r="44" spans="1:11" ht="14" thickBot="1">
       <c r="A44" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" s="7">
         <f>SUM(B43+D43)</f>
@@ -2123,12 +2127,12 @@
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14" thickBot="1">
       <c r="A45" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2137,32 +2141,32 @@
       <c r="F45" s="25"/>
       <c r="G45" s="26"/>
       <c r="I45" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="17"/>
     </row>
     <row r="46" spans="1:11" ht="27" thickBot="1">
       <c r="A46" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="19"/>
@@ -2170,7 +2174,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B47" s="3">
         <f>SUM(B8:B15)</f>
@@ -2197,18 +2201,18 @@
         <v>428.66666666666669</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B48" s="3">
         <v>8</v>
@@ -2229,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J48" s="3">
         <f>SUM(B47,C47,E47,)</f>
@@ -2242,7 +2246,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" s="3">
         <f>(B47/B48)</f>
@@ -2269,7 +2273,7 @@
         <v>53.583333333333336</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J49" s="3">
         <f>SUM(B48,C48,E48,)</f>
@@ -2282,7 +2286,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="I50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J50" s="3">
         <f>(J48/J49)</f>
@@ -2300,7 +2304,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>2015</v>
@@ -2321,44 +2325,44 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>32</v>
+      </c>
+      <c r="C82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
         <v>8</v>
       </c>
-      <c r="B82">
+      <c r="B84">
         <v>38</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84">
-        <v>32</v>
-      </c>
-      <c r="C84">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7">
       <c r="A86" s="14" t="s">
         <v>5</v>
       </c>
@@ -2371,70 +2375,109 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>495</v>
+      </c>
+      <c r="C87">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>258</v>
+      </c>
+      <c r="C88">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="26">
+    <row r="92" spans="1:7" ht="26">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F92">
-        <f>(B82*F93)</f>
-        <v>208.93336236344035</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="26">
+      <c r="E92">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="26">
       <c r="A93" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="27">
+        <v>47</v>
+      </c>
+      <c r="B93" s="28">
         <v>308745538</v>
       </c>
       <c r="C93" s="14">
         <v>100</v>
       </c>
       <c r="D93" s="14">
-        <f>(B93/100000)</f>
-        <v>3087.4553799999999</v>
-      </c>
-      <c r="F93">
-        <f>(B94/B95)</f>
-        <v>5.4982463779852724</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="26">
+        <f>(B93/1000000)</f>
+        <v>308.74553800000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="26">
       <c r="A94" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="28">
         <v>231040398</v>
       </c>
       <c r="C94" s="14">
         <v>74.8</v>
       </c>
-      <c r="D94" s="28">
-        <f>B94/100000</f>
-        <v>2310.40398</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="26">
+      <c r="D94" s="29">
+        <f>B94/1000000</f>
+        <v>231.04039800000001</v>
+      </c>
+      <c r="E94" s="30">
+        <f>(B94/B82)</f>
+        <v>7220012.4375</v>
+      </c>
+      <c r="F94" s="27">
+        <v>7220012</v>
+      </c>
+      <c r="G94" s="31">
+        <f>(F94/E92)</f>
+        <v>7.2200119999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="26">
       <c r="A95" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="28">
         <v>42020743</v>
       </c>
       <c r="C95" s="14">
         <v>13.6</v>
       </c>
-      <c r="D95" s="28">
-        <f>B95/100000</f>
-        <v>420.20742999999999</v>
+      <c r="D95" s="29">
+        <f>B95/1000000</f>
+        <v>42.020743000000003</v>
+      </c>
+      <c r="E95">
+        <f>(B95/B84)</f>
+        <v>1105809.0263157894</v>
+      </c>
+      <c r="F95" s="27">
+        <v>1105809</v>
+      </c>
+      <c r="G95" s="31">
+        <f>(F95/E92)</f>
+        <v>1.105809</v>
       </c>
     </row>
   </sheetData>
